--- a/data/xlsx/01152019.xlsx
+++ b/data/xlsx/01152019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85103BDA-ED2E-4349-A92D-81402B01C9F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F83A9-31CF-4941-A427-BB27F32DECCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="15420" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,15 +223,6 @@
     <t>DISORDERLY CONDUCT</t>
   </si>
   <si>
-    <t>THE FOLLOWING ARRESTED FOR LODGING, CURFEW AND CAMPSITE VIOLATIONS, PEOPLE`S PARK. TO SANTA RITA JAIL:
-CARTMILL, JAMES (MW-47-O)
-CATHELINE, VINCENT (MW-24-S)
-DELLANTONIO, RICHARD (MW-45-O)
-LORENTZEN, PETER AKA MYERS, MICHAEL (MW-45-O)
-LOT, MICHELLE (FW-48-O)
-TIMMS, JESSE (MW-40-O)</t>
-  </si>
-  <si>
     <t>MALICIOUS MISCHIEF -REPORT</t>
   </si>
   <si>
@@ -284,6 +275,9 @@
   </si>
   <si>
     <t>ENERGY BIOSCIENCES INSTITUTE</t>
+  </si>
+  <si>
+    <t>THE FOLLOWING ARRESTED FOR LODGING, CURFEW AND CAMPSITE VIOLATIONS, PEOPLE`S PARK. TO SANTA RITA JAIL: CARTMILL, JAMES (MW-47-O),  CATHELINE, VINCENT (MW-24-S), DELLANTONIO, RICHARD (MW-45-O),  LORENTZEN, PETER AKA MYERS, MICHAEL (MW-45-O), LOT, MICHELLE (FW-48-O), TIMMS, JESSE (MW-40-O)</t>
   </si>
 </sst>
 </file>
@@ -681,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -694,13 +688,10 @@
     <col min="3" max="3" width="14"/>
     <col min="4" max="4" width="19"/>
     <col min="7" max="7" width="14"/>
-    <col min="8" max="9" width="21"/>
-    <col min="10" max="10" width="14"/>
-    <col min="11" max="11" width="21"/>
-    <col min="12" max="12" width="13"/>
+    <col min="8" max="8" width="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -717,17 +708,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="280">
+    </row>
+    <row r="2" spans="1:8" ht="252">
       <c r="A2" s="4">
         <v>43480</v>
       </c>
@@ -750,12 +740,10 @@
         <v>-122.257058</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>43480</v>
       </c>
@@ -777,9 +765,8 @@
       <c r="G3">
         <v>-122.257058</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>43480</v>
       </c>
@@ -790,7 +777,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -802,11 +789,10 @@
         <v>-122.260294</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>43480</v>
       </c>
@@ -820,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>37.883375999999998</v>
@@ -829,11 +815,10 @@
         <v>-122.301134</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>43480</v>
       </c>
@@ -844,7 +829,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -856,11 +841,10 @@
         <v>-122.26003799999999</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>43480</v>
       </c>
@@ -871,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -883,7 +867,7 @@
         <v>-122.257109</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>43480</v>
       </c>
@@ -894,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -906,7 +890,7 @@
         <v>-122.26003799999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>43480</v>
       </c>
@@ -928,9 +912,8 @@
       <c r="G9">
         <v>-122.254817</v>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>43480</v>
       </c>
@@ -944,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10">
         <v>37.877504999999999</v>
@@ -952,10 +935,8 @@
       <c r="G10">
         <v>-122.268936</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>43480</v>
       </c>
@@ -966,10 +947,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>37.874039000000003</v>
@@ -977,9 +958,8 @@
       <c r="G11">
         <v>-122.266457</v>
       </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>43480</v>
       </c>
@@ -990,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
@@ -1002,9 +982,8 @@
         <v>-122.23879100000001</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>43480</v>
       </c>
@@ -1012,10 +991,10 @@
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -1027,9 +1006,8 @@
         <v>-122.298208</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>43480</v>
       </c>
@@ -1051,9 +1029,8 @@
       <c r="G14">
         <v>-122.257058</v>
       </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>43480</v>
       </c>
@@ -1075,9 +1052,8 @@
       <c r="G15">
         <v>-122.257058</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>43480</v>
       </c>
@@ -1099,9 +1075,8 @@
       <c r="G16">
         <v>-122.258978</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>43480</v>
       </c>
@@ -1123,9 +1098,8 @@
       <c r="G17">
         <v>-122.253767</v>
       </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>43480</v>
       </c>
@@ -1136,7 +1110,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>6</v>
@@ -1148,12 +1122,10 @@
         <v>-122.257058</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>43480</v>
       </c>
@@ -1164,7 +1136,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>53</v>
@@ -1176,12 +1148,10 @@
         <v>-122.30105500000001</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>43480</v>
       </c>
@@ -1204,9 +1174,8 @@
         <v>-122.264364</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>43480</v>
       </c>
@@ -1214,10 +1183,10 @@
         <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>59</v>
@@ -1228,9 +1197,8 @@
       <c r="G21">
         <v>-122.257853</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>43480</v>
       </c>
@@ -1244,7 +1212,7 @@
         <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>37.884965000000001</v>
@@ -1253,9 +1221,8 @@
         <v>-122.30510700000001</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>43480</v>
       </c>
@@ -1269,7 +1236,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23">
         <v>37.884425999999998</v>
@@ -1278,7 +1245,6 @@
         <v>-122.30524800000001</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/01152019.xlsx
+++ b/data/xlsx/01152019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F83A9-31CF-4941-A427-BB27F32DECCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B50680-DB3B-5346-A281-180EDE0102E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="15420" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,6 +284,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -332,11 +335,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -718,7 +721,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="252">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>43480</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -744,7 +747,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>43480</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -767,7 +770,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>43480</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -793,7 +796,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>43480</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -819,7 +822,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>43480</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -845,7 +848,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>43480</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -868,7 +871,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>43480</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -891,7 +894,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>43480</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -914,7 +917,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>43480</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -937,7 +940,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>43480</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -960,7 +963,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>43480</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -984,7 +987,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>43480</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1008,7 +1011,7 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>43480</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1031,7 +1034,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>43480</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1054,7 +1057,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>43480</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1077,7 +1080,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>43480</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1100,7 +1103,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>43480</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1126,7 +1129,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>43480</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1147,12 +1150,12 @@
       <c r="G19">
         <v>-122.30105500000001</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>43480</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1173,10 +1176,10 @@
       <c r="G20">
         <v>-122.264364</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>43480</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1199,7 +1202,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>43480</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1223,7 +1226,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="6">
         <v>43480</v>
       </c>
       <c r="B23" s="2" t="s">

--- a/data/xlsx/01152019.xlsx
+++ b/data/xlsx/01152019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B50680-DB3B-5346-A281-180EDE0102E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92873E52-985F-EA4E-8537-77E304E4994E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="15420" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>Category</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>THE FOLLOWING ARRESTED FOR LODGING, CURFEW AND CAMPSITE VIOLATIONS, PEOPLE`S PARK. TO SANTA RITA JAIL: CARTMILL, JAMES (MW-47-O),  CATHELINE, VINCENT (MW-24-S), DELLANTONIO, RICHARD (MW-45-O),  LORENTZEN, PETER AKA MYERS, MICHAEL (MW-45-O), LOT, MICHELLE (FW-48-O), TIMMS, JESSE (MW-40-O)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -328,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -336,10 +339,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +681,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -721,7 +721,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="252">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>43480</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -747,7 +747,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>43480</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -768,9 +768,12 @@
       <c r="G3">
         <v>-122.257058</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>43480</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -796,7 +799,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>43480</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -822,7 +825,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>43480</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -848,7 +851,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>43480</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -869,9 +872,12 @@
       <c r="G7">
         <v>-122.257109</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>43480</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -892,9 +898,12 @@
       <c r="G8">
         <v>-122.26003799999999</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>43480</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -915,9 +924,12 @@
       <c r="G9">
         <v>-122.254817</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>43480</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -938,9 +950,12 @@
       <c r="G10">
         <v>-122.268936</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>43480</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -961,9 +976,12 @@
       <c r="G11">
         <v>-122.266457</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>43480</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -984,10 +1002,12 @@
       <c r="G12">
         <v>-122.23879100000001</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>43480</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1008,10 +1028,12 @@
       <c r="G13">
         <v>-122.298208</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>43480</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1032,9 +1054,12 @@
       <c r="G14">
         <v>-122.257058</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>43480</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1055,9 +1080,12 @@
       <c r="G15">
         <v>-122.257058</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>43480</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1078,9 +1106,12 @@
       <c r="G16">
         <v>-122.258978</v>
       </c>
+      <c r="H16" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>43480</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1101,9 +1132,12 @@
       <c r="G17">
         <v>-122.253767</v>
       </c>
+      <c r="H17" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>43480</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1129,7 +1163,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>43480</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1155,7 +1189,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>43480</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1176,10 +1210,12 @@
       <c r="G20">
         <v>-122.264364</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>43480</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1200,9 +1236,12 @@
       <c r="G21">
         <v>-122.257853</v>
       </c>
+      <c r="H21" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>43480</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1223,10 +1262,12 @@
       <c r="G22">
         <v>-122.30510700000001</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>43480</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1247,7 +1288,9 @@
       <c r="G23">
         <v>-122.30524800000001</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
